--- a/sql/patterns/SQL50.xlsx
+++ b/sql/patterns/SQL50.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\sql\patterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02E103F-361F-42B9-90E4-C9B51017068C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F86D0E0-E11F-4EE8-A060-25179E857874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Question</t>
   </si>
@@ -51,6 +51,21 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>1757. Recyclable and Low Fat Products</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>Select</t>
+  </si>
+  <si>
+    <t>Simple select of a column, where conditions.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/recyclable-and-low-fat-products/</t>
   </si>
 </sst>
 </file>
@@ -82,12 +97,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -103,10 +124,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -117,7 +139,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="0"/>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -140,7 +162,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E2" insertRow="1" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E2" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:E2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
@@ -418,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,7 +471,21 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E2" s="2"/>
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sql/patterns/SQL50.xlsx
+++ b/sql/patterns/SQL50.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\sql\patterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F86D0E0-E11F-4EE8-A060-25179E857874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29DA3A9-FA53-4071-A0F7-07764CE6B694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Question</t>
   </si>
@@ -66,6 +66,15 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/recyclable-and-low-fat-products/</t>
+  </si>
+  <si>
+    <t>584. Find Customer Referee</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-customer-referee/solutions/3857327/100-easy-fast-clean-one-line-solution/?envType=study-plan-v2&amp;envId=top-sql-50</t>
+  </si>
+  <si>
+    <t>Select col from the table, but in PL/SQL, we need to specify where the referee_id is null. We can also use COALESECE to deplauce NULL with default values.</t>
   </si>
 </sst>
 </file>
@@ -162,8 +171,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E2" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E3" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E3" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -438,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,11 +496,31 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{F1254D27-EDE7-44D1-947B-FEEA44C1ED65}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/sql/patterns/SQL50.xlsx
+++ b/sql/patterns/SQL50.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\sql\patterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29DA3A9-FA53-4071-A0F7-07764CE6B694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78F38B5-E0BA-41DF-B03A-6153DE512178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Question</t>
   </si>
@@ -75,6 +75,15 @@
   </si>
   <si>
     <t>Select col from the table, but in PL/SQL, we need to specify where the referee_id is null. We can also use COALESECE to deplauce NULL with default values.</t>
+  </si>
+  <si>
+    <t>595. Big Countries</t>
+  </si>
+  <si>
+    <t>Select cols from table where conditions OR conditions. UNION is also possible.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/big-countries/solutions/103561/union-and-or-and-the-explanation/?envType=study-plan-v2&amp;envId=top-sql-50 </t>
   </si>
 </sst>
 </file>
@@ -171,8 +180,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E3" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E3" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E4" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E4" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -447,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,14 +522,32 @@
         <v>11</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{F1254D27-EDE7-44D1-947B-FEEA44C1ED65}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{0156A8F3-0C72-4410-85E2-B82EA61E61E9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/sql/patterns/SQL50.xlsx
+++ b/sql/patterns/SQL50.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\sql\patterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78F38B5-E0BA-41DF-B03A-6153DE512178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF16B1C-7E93-4D25-826F-B71B04F2F88A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>Question</t>
   </si>
@@ -84,6 +84,24 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/big-countries/solutions/103561/union-and-or-and-the-explanation/?envType=study-plan-v2&amp;envId=top-sql-50 </t>
+  </si>
+  <si>
+    <t>1148. Article Views I</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT col AS id FROM View WHERE id1 = id2 ORDER BY id ASC;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/article-views-i/solutions/1945221/oracle-sql-simple-query-using-where-clause/?envType=study-plan-v2&amp;envId=top-sql-50 </t>
+  </si>
+  <si>
+    <t>1683. Invalid Tweets</t>
+  </si>
+  <si>
+    <t>Use LENGTH(col) &gt; val</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/invalid-tweets/solutions/3857245/100-easy-fast-clean-one-line-solution/?envType=study-plan-v2&amp;envId=top-sql-50 </t>
   </si>
 </sst>
 </file>
@@ -180,8 +198,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E4" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E4" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E6" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E6" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -456,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,15 +557,51 @@
         <v>15</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{F1254D27-EDE7-44D1-947B-FEEA44C1ED65}"/>
     <hyperlink ref="E4" r:id="rId2" xr:uid="{0156A8F3-0C72-4410-85E2-B82EA61E61E9}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{75E3FD20-A8D2-4F2B-A5A5-61551C1DEED0}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{74D9C833-CB5A-4515-8593-35D362890312}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
--- a/sql/patterns/SQL50.xlsx
+++ b/sql/patterns/SQL50.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\sql\patterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF16B1C-7E93-4D25-826F-B71B04F2F88A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B954D581-1DB4-462A-AC69-5C2C85114A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>Question</t>
   </si>
@@ -102,6 +102,18 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/invalid-tweets/solutions/3857245/100-easy-fast-clean-one-line-solution/?envType=study-plan-v2&amp;envId=top-sql-50 </t>
+  </si>
+  <si>
+    <t>1378. Replace Employee ID With The Unique Identifier</t>
+  </si>
+  <si>
+    <t>Basic Joins</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/replace-employee-id-with-the-unique-identifier/solutions/3862024/100-easy-fast-clean-2-solution/?envType=study-plan-v2&amp;envId=top-sql-50</t>
+  </si>
+  <si>
+    <t>We can perform LEFT JOIN USING expressions, we can also use ON</t>
   </si>
 </sst>
 </file>
@@ -198,8 +210,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E6" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E6" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E7" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E7" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -474,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,17 +603,35 @@
         <v>21</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{F1254D27-EDE7-44D1-947B-FEEA44C1ED65}"/>
     <hyperlink ref="E4" r:id="rId2" xr:uid="{0156A8F3-0C72-4410-85E2-B82EA61E61E9}"/>
     <hyperlink ref="E5" r:id="rId3" xr:uid="{75E3FD20-A8D2-4F2B-A5A5-61551C1DEED0}"/>
     <hyperlink ref="E6" r:id="rId4" xr:uid="{74D9C833-CB5A-4515-8593-35D362890312}"/>
+    <hyperlink ref="E7" r:id="rId5" xr:uid="{50188CAC-899B-49B7-ACA4-D054341CADE8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
--- a/sql/patterns/SQL50.xlsx
+++ b/sql/patterns/SQL50.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\sql\patterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B954D581-1DB4-462A-AC69-5C2C85114A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB51FD49-1941-4F0F-8928-E153552405F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>Question</t>
   </si>
@@ -114,6 +114,15 @@
   </si>
   <si>
     <t>We can perform LEFT JOIN USING expressions, we can also use ON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/product-sales-analysis-i/solutions/3876045/beginners-friendly-and-simple-solution-without-join/?envType=study-plan-v2&amp;envId=top-sql-50 </t>
+  </si>
+  <si>
+    <t>We can get the columns if we have both tables in the FROM Clause, it is an implict inner join. We can also solve with a Left join, but make sure to join the child onto the parent. Inner Join is the most accurate in this case.</t>
+  </si>
+  <si>
+    <t>1068. Product Sales Analysis I</t>
   </si>
 </sst>
 </file>
@@ -210,8 +219,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E7" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E7" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E8" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E8" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -486,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,6 +629,23 @@
         <v>24</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{F1254D27-EDE7-44D1-947B-FEEA44C1ED65}"/>
@@ -627,11 +653,12 @@
     <hyperlink ref="E5" r:id="rId3" xr:uid="{75E3FD20-A8D2-4F2B-A5A5-61551C1DEED0}"/>
     <hyperlink ref="E6" r:id="rId4" xr:uid="{74D9C833-CB5A-4515-8593-35D362890312}"/>
     <hyperlink ref="E7" r:id="rId5" xr:uid="{50188CAC-899B-49B7-ACA4-D054341CADE8}"/>
+    <hyperlink ref="E8" r:id="rId6" xr:uid="{BDFB5AE8-34E8-47CF-B2D3-9D50DE2608FA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
   <tableParts count="1">
-    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
--- a/sql/patterns/SQL50.xlsx
+++ b/sql/patterns/SQL50.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\sql\patterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB51FD49-1941-4F0F-8928-E153552405F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DEAE1D-8202-46DB-A4CA-0B658071A439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>Question</t>
   </si>
@@ -123,6 +123,15 @@
   </si>
   <si>
     <t>1068. Product Sales Analysis I</t>
+  </si>
+  <si>
+    <t>1581. Customer Who Visited but Did Not Make Any Transactions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/customer-who-visited-but-did-not-make-any-transactions/solutions/3500258/full-explanation-unlike-any-others-where-they-only-provide-the-solution/ </t>
+  </si>
+  <si>
+    <t>SELECT and LEFT JOIN ON the common id WHERE transaction IS NULL GROUP BY customer id. Remember to use GROUP BY for aggregate functions.</t>
   </si>
 </sst>
 </file>
@@ -219,8 +228,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E8" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E8" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E9" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E9" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -495,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,6 +655,23 @@
         <v>26</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{F1254D27-EDE7-44D1-947B-FEEA44C1ED65}"/>
@@ -654,11 +680,12 @@
     <hyperlink ref="E6" r:id="rId4" xr:uid="{74D9C833-CB5A-4515-8593-35D362890312}"/>
     <hyperlink ref="E7" r:id="rId5" xr:uid="{50188CAC-899B-49B7-ACA4-D054341CADE8}"/>
     <hyperlink ref="E8" r:id="rId6" xr:uid="{BDFB5AE8-34E8-47CF-B2D3-9D50DE2608FA}"/>
+    <hyperlink ref="E9" r:id="rId7" xr:uid="{0EC43845-FE40-4408-957E-0C93B9DA6429}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
   <tableParts count="1">
-    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
--- a/sql/patterns/SQL50.xlsx
+++ b/sql/patterns/SQL50.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\sql\patterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DEAE1D-8202-46DB-A4CA-0B658071A439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25D92D4-8597-4B67-A0CE-6BC3648ED0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t>Question</t>
   </si>
@@ -132,6 +132,15 @@
   </si>
   <si>
     <t>SELECT and LEFT JOIN ON the common id WHERE transaction IS NULL GROUP BY customer id. Remember to use GROUP BY for aggregate functions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/rising-temperature/solutions/3511128/93-beats-with-lag-over-100-memory-oracle/?envType=study-plan-v2&amp;envId=top-sql-50 </t>
+  </si>
+  <si>
+    <t>197. Rising Temperature</t>
+  </si>
+  <si>
+    <t>We can either Inner Join where recorddate-1 = recorddate, or use LAG() function.</t>
   </si>
 </sst>
 </file>
@@ -228,8 +237,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E9" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E9" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E10" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E10" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -504,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,6 +681,23 @@
         <v>30</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{F1254D27-EDE7-44D1-947B-FEEA44C1ED65}"/>
@@ -681,11 +707,12 @@
     <hyperlink ref="E7" r:id="rId5" xr:uid="{50188CAC-899B-49B7-ACA4-D054341CADE8}"/>
     <hyperlink ref="E8" r:id="rId6" xr:uid="{BDFB5AE8-34E8-47CF-B2D3-9D50DE2608FA}"/>
     <hyperlink ref="E9" r:id="rId7" xr:uid="{0EC43845-FE40-4408-957E-0C93B9DA6429}"/>
+    <hyperlink ref="E10" r:id="rId8" xr:uid="{D11A787B-3E13-4A37-841D-9A8CA46F188B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
   <tableParts count="1">
-    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>
--- a/sql/patterns/SQL50.xlsx
+++ b/sql/patterns/SQL50.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\sql\patterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25D92D4-8597-4B67-A0CE-6BC3648ED0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9087BB88-401F-4C00-B910-6975D4D3A935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
   <si>
     <t>Question</t>
   </si>
@@ -141,6 +141,15 @@
   </si>
   <si>
     <t>We can either Inner Join where recorddate-1 = recorddate, or use LAG() function.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/average-time-of-process-per-machine/solutions/3537533/detailed-explanation-of-join-round-avg-group-by/?envType=study-plan-v2&amp;envId=top-sql-50 </t>
+  </si>
+  <si>
+    <t>We can solve with JOIN, ROUND, AVG, GROUP BY. First we need to join the same table to have starting time and ending time in the same line. Then calculate the difference between timestamps and group the values by machine id.</t>
+  </si>
+  <si>
+    <t>1661. Average Time of Process per Machine</t>
   </si>
 </sst>
 </file>
@@ -237,8 +246,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E10" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E10" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E11" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E11" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -513,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,6 +707,23 @@
         <v>32</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{F1254D27-EDE7-44D1-947B-FEEA44C1ED65}"/>
@@ -708,11 +734,12 @@
     <hyperlink ref="E8" r:id="rId6" xr:uid="{BDFB5AE8-34E8-47CF-B2D3-9D50DE2608FA}"/>
     <hyperlink ref="E9" r:id="rId7" xr:uid="{0EC43845-FE40-4408-957E-0C93B9DA6429}"/>
     <hyperlink ref="E10" r:id="rId8" xr:uid="{D11A787B-3E13-4A37-841D-9A8CA46F188B}"/>
+    <hyperlink ref="E11" r:id="rId9" xr:uid="{60796B67-4A36-4AD3-BEF3-18361296B7A6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
   <tableParts count="1">
-    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
 </file>
--- a/sql/patterns/SQL50.xlsx
+++ b/sql/patterns/SQL50.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\sql\patterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9087BB88-401F-4C00-B910-6975D4D3A935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B4EFF1-9FB3-4CFB-ACEB-3067F9E8A776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>Question</t>
   </si>
@@ -150,6 +150,15 @@
   </si>
   <si>
     <t>1661. Average Time of Process per Machine</t>
+  </si>
+  <si>
+    <t>577. Employee Bonus</t>
+  </si>
+  <si>
+    <t>left join the tables on empId, WHERE bonus &lt; 1000 OR bonus is NULL.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/employee-bonus/solutions/1848034/clean-and-simple-multiple-solutions-mysql-ms-sql-server-oracle/?envType=study-plan-v2&amp;envId=top-sql-50 </t>
   </si>
 </sst>
 </file>
@@ -246,8 +255,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E11" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E11" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E12" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E12" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -522,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,6 +733,23 @@
         <v>35</v>
       </c>
     </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{F1254D27-EDE7-44D1-947B-FEEA44C1ED65}"/>
@@ -735,11 +761,12 @@
     <hyperlink ref="E9" r:id="rId7" xr:uid="{0EC43845-FE40-4408-957E-0C93B9DA6429}"/>
     <hyperlink ref="E10" r:id="rId8" xr:uid="{D11A787B-3E13-4A37-841D-9A8CA46F188B}"/>
     <hyperlink ref="E11" r:id="rId9" xr:uid="{60796B67-4A36-4AD3-BEF3-18361296B7A6}"/>
+    <hyperlink ref="E12" r:id="rId10" xr:uid="{8EFBE6CA-9EA8-48E4-A44E-B3CC206F745A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
   <tableParts count="1">
-    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
   </tableParts>
 </worksheet>
 </file>
--- a/sql/patterns/SQL50.xlsx
+++ b/sql/patterns/SQL50.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\sql\patterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B4EFF1-9FB3-4CFB-ACEB-3067F9E8A776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051A8B87-F73B-4B3A-8A58-4358EF216F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
   <si>
     <t>Question</t>
   </si>
@@ -159,6 +159,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/employee-bonus/solutions/1848034/clean-and-simple-multiple-solutions-mysql-ms-sql-server-oracle/?envType=study-plan-v2&amp;envId=top-sql-50 </t>
+  </si>
+  <si>
+    <t>1280. Students and Examinations</t>
+  </si>
+  <si>
+    <t>We can use a CROSS JOIN, or 2 LEFT JOIN steps. CTE is helpful here.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Cross Join: https://leetcode.com/problems/students-and-examinations/solutions/4212918/runtime-beats-97-79-simple-join-based-approach/?envType=study-plan-v2&amp;envId=top-sql-50 Cross Join: https://leetcode.com/problems/students-and-examinations/solutions/3861850/100-easy-fast-clean-solution/?envType=study-plan-v2&amp;envId=top-sql-50 </t>
   </si>
 </sst>
 </file>
@@ -255,8 +264,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E12" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E12" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E13" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E13" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -531,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,6 +757,23 @@
       </c>
       <c r="E12" s="2" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/sql/patterns/SQL50.xlsx
+++ b/sql/patterns/SQL50.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\sql\patterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051A8B87-F73B-4B3A-8A58-4358EF216F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A635629F-FEFE-45A0-90CA-D1D6A064FEAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
   <si>
     <t>Question</t>
   </si>
@@ -168,6 +168,15 @@
   </si>
   <si>
     <t xml:space="preserve">No Cross Join: https://leetcode.com/problems/students-and-examinations/solutions/4212918/runtime-beats-97-79-simple-join-based-approach/?envType=study-plan-v2&amp;envId=top-sql-50 Cross Join: https://leetcode.com/problems/students-and-examinations/solutions/3861850/100-easy-fast-clean-solution/?envType=study-plan-v2&amp;envId=top-sql-50 </t>
+  </si>
+  <si>
+    <t>570. Managers with at Least 5 Direct Reports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/managers-with-at-least-5-direct-reports/solutions/4177373/solved-in-5-different-ways-top-2023/?envType=study-plan-v2&amp;envId=top-sql-50 </t>
+  </si>
+  <si>
+    <t>The main idea is to self join the Employee table on id = managerId and GROUP BY those having COUNT() &gt;= 5. In Oracle, may need to use an INNER JOIN(SELECT … HAVING COUNT(managerId) &gt;= 5)</t>
   </si>
 </sst>
 </file>
@@ -264,8 +273,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E13" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E13" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E14" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E14" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -540,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,6 +785,23 @@
         <v>43</v>
       </c>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{F1254D27-EDE7-44D1-947B-FEEA44C1ED65}"/>
@@ -788,11 +814,12 @@
     <hyperlink ref="E10" r:id="rId8" xr:uid="{D11A787B-3E13-4A37-841D-9A8CA46F188B}"/>
     <hyperlink ref="E11" r:id="rId9" xr:uid="{60796B67-4A36-4AD3-BEF3-18361296B7A6}"/>
     <hyperlink ref="E12" r:id="rId10" xr:uid="{8EFBE6CA-9EA8-48E4-A44E-B3CC206F745A}"/>
+    <hyperlink ref="E14" r:id="rId11" xr:uid="{427E0C6F-099A-4B94-8C4C-72DC48A4EEAA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
   <tableParts count="1">
-    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId13"/>
   </tableParts>
 </worksheet>
 </file>
--- a/sql/patterns/SQL50.xlsx
+++ b/sql/patterns/SQL50.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\sql\patterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A635629F-FEFE-45A0-90CA-D1D6A064FEAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F30475-256C-4838-82A6-EC6420356329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
   <si>
     <t>Question</t>
   </si>
@@ -177,6 +177,18 @@
   </si>
   <si>
     <t>The main idea is to self join the Employee table on id = managerId and GROUP BY those having COUNT() &gt;= 5. In Oracle, may need to use an INNER JOIN(SELECT … HAVING COUNT(managerId) &gt;= 5)</t>
+  </si>
+  <si>
+    <t>Basic Aggregate Functions</t>
+  </si>
+  <si>
+    <t>1251. Average Selling Price</t>
+  </si>
+  <si>
+    <t>Need to use NVL() to handle nulls. Calculate the average_price using SUM() from Prices, Left Join UnitsSold on the purchase_date between P.start_date and P.end_date and where product_ids are equal. GROUPY BY P.product_id;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/average-selling-price/solutions/4515145/oracle-nvl-left-join/?envType=study-plan-v2&amp;envId=top-sql-50 </t>
   </si>
 </sst>
 </file>
@@ -273,8 +285,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E14" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E14" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E15" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E15" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -549,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,6 +814,23 @@
         <v>45</v>
       </c>
     </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{F1254D27-EDE7-44D1-947B-FEEA44C1ED65}"/>
@@ -815,11 +844,12 @@
     <hyperlink ref="E11" r:id="rId9" xr:uid="{60796B67-4A36-4AD3-BEF3-18361296B7A6}"/>
     <hyperlink ref="E12" r:id="rId10" xr:uid="{8EFBE6CA-9EA8-48E4-A44E-B3CC206F745A}"/>
     <hyperlink ref="E14" r:id="rId11" xr:uid="{427E0C6F-099A-4B94-8C4C-72DC48A4EEAA}"/>
+    <hyperlink ref="E15" r:id="rId12" xr:uid="{A4ED1338-C49E-4CA5-8824-47523C362E20}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
   <tableParts count="1">
-    <tablePart r:id="rId13"/>
+    <tablePart r:id="rId14"/>
   </tableParts>
 </worksheet>
 </file>
--- a/sql/patterns/SQL50.xlsx
+++ b/sql/patterns/SQL50.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\sql\patterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F30475-256C-4838-82A6-EC6420356329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E7CB74-0E20-4F26-9D78-C3375A99F47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="55">
   <si>
     <t>Question</t>
   </si>
@@ -189,6 +189,18 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/average-selling-price/solutions/4515145/oracle-nvl-left-join/?envType=study-plan-v2&amp;envId=top-sql-50 </t>
+  </si>
+  <si>
+    <t>1193. Monthly Transactions I</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/monthly-transactions-i/solutions/3871182/100-easy-fast-clean-solution/?envType=study-plan-v2&amp;envId=top-sql-50 </t>
+  </si>
+  <si>
+    <t>For grouping by month, use TO_CHAR(trans_date, 'YYYY-MM') AS month (or DATE_FORMAT). Use sum(case) for the counts. Group by TO_CHAR(trans_date, 'YYYY-MM'), country. A good thought process is to work column by column in the output table and treat each column as its own query, and work towards the solution.</t>
   </si>
 </sst>
 </file>
@@ -220,7 +232,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,6 +242,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,11 +265,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -285,8 +304,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E15" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E15" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E16" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E16" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -561,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24:D25"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -831,6 +850,23 @@
         <v>50</v>
       </c>
     </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{F1254D27-EDE7-44D1-947B-FEEA44C1ED65}"/>
@@ -845,11 +881,12 @@
     <hyperlink ref="E12" r:id="rId10" xr:uid="{8EFBE6CA-9EA8-48E4-A44E-B3CC206F745A}"/>
     <hyperlink ref="E14" r:id="rId11" xr:uid="{427E0C6F-099A-4B94-8C4C-72DC48A4EEAA}"/>
     <hyperlink ref="E15" r:id="rId12" xr:uid="{A4ED1338-C49E-4CA5-8824-47523C362E20}"/>
+    <hyperlink ref="E16" r:id="rId13" xr:uid="{13773CCD-E66E-4CEC-ABC2-6F5BD3BF3421}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
   <tableParts count="1">
-    <tablePart r:id="rId14"/>
+    <tablePart r:id="rId15"/>
   </tableParts>
 </worksheet>
 </file>
--- a/sql/patterns/SQL50.xlsx
+++ b/sql/patterns/SQL50.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\sql\patterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E7CB74-0E20-4F26-9D78-C3375A99F47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C4A211-1AC4-4036-B670-48561E965F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="58">
   <si>
     <t>Question</t>
   </si>
@@ -201,6 +201,15 @@
   </si>
   <si>
     <t>For grouping by month, use TO_CHAR(trans_date, 'YYYY-MM') AS month (or DATE_FORMAT). Use sum(case) for the counts. Group by TO_CHAR(trans_date, 'YYYY-MM'), country. A good thought process is to work column by column in the output table and treat each column as its own query, and work towards the solution.</t>
+  </si>
+  <si>
+    <t>1174. Immediate Food Delivery II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/immediate-food-delivery-ii/solutions/3918384/oracle-simple-solution-using-case-in-and-sub-query/?envType=study-plan-v2&amp;envId=top-sql-50 </t>
+  </si>
+  <si>
+    <t>Use ROUND(AVG(CASE))) for immediate_percentage, and WHERE (customer_id, order_date) IN a subquery (SELECT customer_id,MIN(order_date) from Delivery GROUP BY customer_id;</t>
   </si>
 </sst>
 </file>
@@ -304,8 +313,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E16" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E16" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E17" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E17" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -580,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,6 +874,23 @@
       </c>
       <c r="E16" s="2" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -882,11 +908,12 @@
     <hyperlink ref="E14" r:id="rId11" xr:uid="{427E0C6F-099A-4B94-8C4C-72DC48A4EEAA}"/>
     <hyperlink ref="E15" r:id="rId12" xr:uid="{A4ED1338-C49E-4CA5-8824-47523C362E20}"/>
     <hyperlink ref="E16" r:id="rId13" xr:uid="{13773CCD-E66E-4CEC-ABC2-6F5BD3BF3421}"/>
+    <hyperlink ref="E17" r:id="rId14" xr:uid="{9A65024D-A8C8-49DF-8989-573B87F1E7DA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
   <tableParts count="1">
-    <tablePart r:id="rId15"/>
+    <tablePart r:id="rId16"/>
   </tableParts>
 </worksheet>
 </file>
--- a/sql/patterns/SQL50.xlsx
+++ b/sql/patterns/SQL50.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\sql\patterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C4A211-1AC4-4036-B670-48561E965F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02458D6D-1AD2-45F6-9A6E-D2DF17223473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="61">
   <si>
     <t>Question</t>
   </si>
@@ -210,6 +210,15 @@
   </si>
   <si>
     <t>Use ROUND(AVG(CASE))) for immediate_percentage, and WHERE (customer_id, order_date) IN a subquery (SELECT customer_id,MIN(order_date) from Delivery GROUP BY customer_id;</t>
+  </si>
+  <si>
+    <t>550. Game Play Analysis IV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/game-play-analysis-iv/solutions/3857392/100-easy-fast-clean-solution/?envType=study-plan-v2&amp;envId=top-sql-50 </t>
+  </si>
+  <si>
+    <t>Left outer join the same table on a2.player_id = a1.player_id and a2.event_date = a1.event_date + 1 where (subquery to filter) the min(event_date) of player_id in a1, grouped by player_id. The subquery is to ensure that the main query starts from the first login date for each player.</t>
   </si>
 </sst>
 </file>
@@ -313,8 +322,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E17" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E17" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E18" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E18" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -589,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -891,6 +900,23 @@
       </c>
       <c r="E17" s="2" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -909,11 +935,12 @@
     <hyperlink ref="E15" r:id="rId12" xr:uid="{A4ED1338-C49E-4CA5-8824-47523C362E20}"/>
     <hyperlink ref="E16" r:id="rId13" xr:uid="{13773CCD-E66E-4CEC-ABC2-6F5BD3BF3421}"/>
     <hyperlink ref="E17" r:id="rId14" xr:uid="{9A65024D-A8C8-49DF-8989-573B87F1E7DA}"/>
+    <hyperlink ref="E18" r:id="rId15" xr:uid="{BDD72FFD-97C5-4C73-AB0E-B3B3AA32804B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
   <tableParts count="1">
-    <tablePart r:id="rId16"/>
+    <tablePart r:id="rId17"/>
   </tableParts>
 </worksheet>
 </file>
--- a/sql/patterns/SQL50.xlsx
+++ b/sql/patterns/SQL50.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\sql\patterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02458D6D-1AD2-45F6-9A6E-D2DF17223473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282FECBD-BF8B-46BC-B2F8-8189A1D3B610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="65">
   <si>
     <t>Question</t>
   </si>
@@ -219,6 +219,18 @@
   </si>
   <si>
     <t>Left outer join the same table on a2.player_id = a1.player_id and a2.event_date = a1.event_date + 1 where (subquery to filter) the min(event_date) of player_id in a1, grouped by player_id. The subquery is to ensure that the main query starts from the first login date for each player.</t>
+  </si>
+  <si>
+    <t>2356. Number of Unique Subjects Taught by Each Teacher</t>
+  </si>
+  <si>
+    <t>Sorting and Grouping</t>
+  </si>
+  <si>
+    <t>Use COUNT(DISTINCT subject_id) and GROUP BY teacher_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/number-of-unique-subjects-taught-by-each-teacher/solutions/3871227/100-easy-fast-clean-solution/?envType=study-plan-v2&amp;envId=top-sql-50 </t>
   </si>
 </sst>
 </file>
@@ -322,8 +334,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E18" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E18" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E19" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E19" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -598,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,6 +929,23 @@
       </c>
       <c r="E18" s="2" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -936,11 +965,12 @@
     <hyperlink ref="E16" r:id="rId13" xr:uid="{13773CCD-E66E-4CEC-ABC2-6F5BD3BF3421}"/>
     <hyperlink ref="E17" r:id="rId14" xr:uid="{9A65024D-A8C8-49DF-8989-573B87F1E7DA}"/>
     <hyperlink ref="E18" r:id="rId15" xr:uid="{BDD72FFD-97C5-4C73-AB0E-B3B3AA32804B}"/>
+    <hyperlink ref="E19" r:id="rId16" xr:uid="{0C176E64-C4A1-4BF3-83DF-E6FCA00B4750}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
   <tableParts count="1">
-    <tablePart r:id="rId17"/>
+    <tablePart r:id="rId18"/>
   </tableParts>
 </worksheet>
 </file>
--- a/sql/patterns/SQL50.xlsx
+++ b/sql/patterns/SQL50.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\sql\patterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282FECBD-BF8B-46BC-B2F8-8189A1D3B610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190A0685-C615-4CEA-B137-CD1D765B070C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="68">
   <si>
     <t>Question</t>
   </si>
@@ -231,6 +231,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/number-of-unique-subjects-taught-by-each-teacher/solutions/3871227/100-easy-fast-clean-solution/?envType=study-plan-v2&amp;envId=top-sql-50 </t>
+  </si>
+  <si>
+    <t>1141. User Activity for the Past 30 Days I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/user-activity-for-the-past-30-days-i/solutions/3871240/100-easy-fast-clean-solution/?envType=study-plan-v2&amp;envId=top-sql-50 </t>
+  </si>
+  <si>
+    <t>You can use to_char for dates to days and between for the where. Subtract the 30 days manually.</t>
   </si>
 </sst>
 </file>
@@ -334,8 +343,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E19" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E19" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E20" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E20" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -610,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -946,6 +955,23 @@
       </c>
       <c r="E19" s="2" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -966,11 +992,12 @@
     <hyperlink ref="E17" r:id="rId14" xr:uid="{9A65024D-A8C8-49DF-8989-573B87F1E7DA}"/>
     <hyperlink ref="E18" r:id="rId15" xr:uid="{BDD72FFD-97C5-4C73-AB0E-B3B3AA32804B}"/>
     <hyperlink ref="E19" r:id="rId16" xr:uid="{0C176E64-C4A1-4BF3-83DF-E6FCA00B4750}"/>
+    <hyperlink ref="E20" r:id="rId17" xr:uid="{C5A93942-BB92-4F67-A04B-BAB995A8F7CA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId17"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
   <tableParts count="1">
-    <tablePart r:id="rId18"/>
+    <tablePart r:id="rId19"/>
   </tableParts>
 </worksheet>
 </file>
--- a/sql/patterns/SQL50.xlsx
+++ b/sql/patterns/SQL50.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\sql\patterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190A0685-C615-4CEA-B137-CD1D765B070C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D30216-EC9A-4C38-A29B-00370885B343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="71">
   <si>
     <t>Question</t>
   </si>
@@ -240,6 +240,15 @@
   </si>
   <si>
     <t>You can use to_char for dates to days and between for the where. Subtract the 30 days manually.</t>
+  </si>
+  <si>
+    <t>1070. Product Sales Analysis III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/product-sales-analysis-iii/solutions/3636409/without-using-any-fancy-keyword-simple-joins-used/?envType=study-plan-v2&amp;envId=top-sql-50 </t>
+  </si>
+  <si>
+    <t>You can use window function (Rank() Over and Partition, or you can join a self select with the min year as year.</t>
   </si>
 </sst>
 </file>
@@ -343,8 +352,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E20" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E20" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E21" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E21" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -619,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -972,6 +981,23 @@
       </c>
       <c r="E20" s="2" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -993,11 +1019,12 @@
     <hyperlink ref="E18" r:id="rId15" xr:uid="{BDD72FFD-97C5-4C73-AB0E-B3B3AA32804B}"/>
     <hyperlink ref="E19" r:id="rId16" xr:uid="{0C176E64-C4A1-4BF3-83DF-E6FCA00B4750}"/>
     <hyperlink ref="E20" r:id="rId17" xr:uid="{C5A93942-BB92-4F67-A04B-BAB995A8F7CA}"/>
+    <hyperlink ref="E21" r:id="rId18" xr:uid="{DBB0C768-F39F-4CF6-8B77-1557FB2ABE8D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId18"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
   <tableParts count="1">
-    <tablePart r:id="rId19"/>
+    <tablePart r:id="rId20"/>
   </tableParts>
 </worksheet>
 </file>
--- a/sql/patterns/SQL50.xlsx
+++ b/sql/patterns/SQL50.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\sql\patterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D30216-EC9A-4C38-A29B-00370885B343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7CD05D-F329-4735-A639-125A70EB955B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="74">
   <si>
     <t>Question</t>
   </si>
@@ -249,6 +249,15 @@
   </si>
   <si>
     <t>You can use window function (Rank() Over and Partition, or you can join a self select with the min year as year.</t>
+  </si>
+  <si>
+    <t>596. Classes More Than 5 Students</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/classes-more-than-5-students/solutions/3865367/100-easy-fast-clean-solution/?envType=study-plan-v2&amp;envId=top-sql-50 </t>
+  </si>
+  <si>
+    <t>Use group by and HAVING count(class) &gt;= 5</t>
   </si>
 </sst>
 </file>
@@ -352,8 +361,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E21" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E21" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E22" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E22" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -628,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -998,6 +1007,23 @@
       </c>
       <c r="E21" s="2" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1020,11 +1046,12 @@
     <hyperlink ref="E19" r:id="rId16" xr:uid="{0C176E64-C4A1-4BF3-83DF-E6FCA00B4750}"/>
     <hyperlink ref="E20" r:id="rId17" xr:uid="{C5A93942-BB92-4F67-A04B-BAB995A8F7CA}"/>
     <hyperlink ref="E21" r:id="rId18" xr:uid="{DBB0C768-F39F-4CF6-8B77-1557FB2ABE8D}"/>
+    <hyperlink ref="E22" r:id="rId19" xr:uid="{5F207FC0-066D-4D41-9E2A-12211DF28BEF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId19"/>
+  <pageSetup orientation="portrait" r:id="rId20"/>
   <tableParts count="1">
-    <tablePart r:id="rId20"/>
+    <tablePart r:id="rId21"/>
   </tableParts>
 </worksheet>
 </file>
--- a/sql/patterns/SQL50.xlsx
+++ b/sql/patterns/SQL50.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\sql\patterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7CD05D-F329-4735-A639-125A70EB955B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956ABF6F-259E-4758-B1A9-03C16697FA26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="77">
   <si>
     <t>Question</t>
   </si>
@@ -258,6 +258,15 @@
   </si>
   <si>
     <t>Use group by and HAVING count(class) &gt;= 5</t>
+  </si>
+  <si>
+    <t>1729. Find Followers Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/find-followers-count/solutions/1889791/mysql-ms-sql-oracle-simple-and-clean/?envType=study-plan-v2&amp;envId=top-sql-50 </t>
+  </si>
+  <si>
+    <t>Use count(follower_id) as followers_count. Group by and order by user_id. Know that Group By performs the aggregation.</t>
   </si>
 </sst>
 </file>
@@ -361,8 +370,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E22" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E22" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E23" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E23" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -637,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1024,6 +1033,23 @@
       </c>
       <c r="E22" s="2" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1047,11 +1073,12 @@
     <hyperlink ref="E20" r:id="rId17" xr:uid="{C5A93942-BB92-4F67-A04B-BAB995A8F7CA}"/>
     <hyperlink ref="E21" r:id="rId18" xr:uid="{DBB0C768-F39F-4CF6-8B77-1557FB2ABE8D}"/>
     <hyperlink ref="E22" r:id="rId19" xr:uid="{5F207FC0-066D-4D41-9E2A-12211DF28BEF}"/>
+    <hyperlink ref="E23" r:id="rId20" xr:uid="{B9FA8B0C-F3D5-4BB8-963C-3FC21DC5976A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId20"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
   <tableParts count="1">
-    <tablePart r:id="rId21"/>
+    <tablePart r:id="rId22"/>
   </tableParts>
 </worksheet>
 </file>
--- a/sql/patterns/SQL50.xlsx
+++ b/sql/patterns/SQL50.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\sql\patterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956ABF6F-259E-4758-B1A9-03C16697FA26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80419A8E-2E24-4EF3-8A0A-B6F8BE0DEA78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="80">
   <si>
     <t>Question</t>
   </si>
@@ -267,6 +267,15 @@
   </si>
   <si>
     <t>Use count(follower_id) as followers_count. Group by and order by user_id. Know that Group By performs the aggregation.</t>
+  </si>
+  <si>
+    <t>619. Biggest Single Number</t>
+  </si>
+  <si>
+    <t>Inner query. Select max(num) as num from (num group by num havingt count = 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/biggest-single-number/solutions/3839933/100-easy-fast-clean-solution/?envType=study-plan-v2&amp;envId=top-sql-50 </t>
   </si>
 </sst>
 </file>
@@ -370,8 +379,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E23" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E23" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E24" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E24" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -646,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,6 +1059,23 @@
       </c>
       <c r="E23" s="2" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1074,11 +1100,12 @@
     <hyperlink ref="E21" r:id="rId18" xr:uid="{DBB0C768-F39F-4CF6-8B77-1557FB2ABE8D}"/>
     <hyperlink ref="E22" r:id="rId19" xr:uid="{5F207FC0-066D-4D41-9E2A-12211DF28BEF}"/>
     <hyperlink ref="E23" r:id="rId20" xr:uid="{B9FA8B0C-F3D5-4BB8-963C-3FC21DC5976A}"/>
+    <hyperlink ref="E24" r:id="rId21" xr:uid="{C998ACAA-0ACE-4A2E-9EAC-F0074AAB5B80}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId21"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
   <tableParts count="1">
-    <tablePart r:id="rId22"/>
+    <tablePart r:id="rId23"/>
   </tableParts>
 </worksheet>
 </file>
--- a/sql/patterns/SQL50.xlsx
+++ b/sql/patterns/SQL50.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\sql\patterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80419A8E-2E24-4EF3-8A0A-B6F8BE0DEA78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3A0FCA-F5CC-4047-A8E4-E5F2DC390AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="83">
   <si>
     <t>Question</t>
   </si>
@@ -276,6 +276,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/biggest-single-number/solutions/3839933/100-easy-fast-clean-solution/?envType=study-plan-v2&amp;envId=top-sql-50 </t>
+  </si>
+  <si>
+    <t>1045. Customers Who Bought All Products</t>
+  </si>
+  <si>
+    <t>select having count(distinct product_key) = (select count(*) from Product)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/customers-who-bought-all-products/solutions/3865452/100-easy-fast-clean-solution/?envType=study-plan-v2&amp;envId=top-sql-50 </t>
   </si>
 </sst>
 </file>
@@ -379,8 +388,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E24" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E24" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E25" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E25" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -655,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1076,6 +1085,23 @@
       </c>
       <c r="E24" s="2" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1101,11 +1127,12 @@
     <hyperlink ref="E22" r:id="rId19" xr:uid="{5F207FC0-066D-4D41-9E2A-12211DF28BEF}"/>
     <hyperlink ref="E23" r:id="rId20" xr:uid="{B9FA8B0C-F3D5-4BB8-963C-3FC21DC5976A}"/>
     <hyperlink ref="E24" r:id="rId21" xr:uid="{C998ACAA-0ACE-4A2E-9EAC-F0074AAB5B80}"/>
+    <hyperlink ref="E25" r:id="rId22" xr:uid="{7A9939AE-51F2-454F-9D8B-DD563F1D1B5A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId22"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
   <tableParts count="1">
-    <tablePart r:id="rId23"/>
+    <tablePart r:id="rId24"/>
   </tableParts>
 </worksheet>
 </file>
--- a/sql/patterns/SQL50.xlsx
+++ b/sql/patterns/SQL50.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\sql\patterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3A0FCA-F5CC-4047-A8E4-E5F2DC390AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8E4808-EAD1-4E11-8B84-BD2DDCB1CDC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="87">
   <si>
     <t>Question</t>
   </si>
@@ -285,6 +285,18 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/customers-who-bought-all-products/solutions/3865452/100-easy-fast-clean-solution/?envType=study-plan-v2&amp;envId=top-sql-50 </t>
+  </si>
+  <si>
+    <t>1731. The Number of Employees Which Report to Each Employee</t>
+  </si>
+  <si>
+    <t>Advanced Select and Joins</t>
+  </si>
+  <si>
+    <t>Use inner join of Employees e1 and Employees e2 on e1.employee_id = e2.reports_to, group by e1.employee_id, e1.name. For the reports count, select count(e2.employee_id)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/the-number-of-employees-which-report-to-each-employee/solutions/3865526/100-easy-fast-clean-solution/?envType=study-plan-v2&amp;envId=top-sql-50 </t>
   </si>
 </sst>
 </file>
@@ -388,8 +400,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E25" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E25" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E26" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E26" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -664,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="E29" sqref="E29:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1102,6 +1114,23 @@
       </c>
       <c r="E25" s="2" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1128,11 +1157,12 @@
     <hyperlink ref="E23" r:id="rId20" xr:uid="{B9FA8B0C-F3D5-4BB8-963C-3FC21DC5976A}"/>
     <hyperlink ref="E24" r:id="rId21" xr:uid="{C998ACAA-0ACE-4A2E-9EAC-F0074AAB5B80}"/>
     <hyperlink ref="E25" r:id="rId22" xr:uid="{7A9939AE-51F2-454F-9D8B-DD563F1D1B5A}"/>
+    <hyperlink ref="E26" r:id="rId23" xr:uid="{5FCF4139-B076-40C1-9250-73EC5908ABB1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId23"/>
+  <pageSetup orientation="portrait" r:id="rId24"/>
   <tableParts count="1">
-    <tablePart r:id="rId24"/>
+    <tablePart r:id="rId25"/>
   </tableParts>
 </worksheet>
 </file>
--- a/sql/patterns/SQL50.xlsx
+++ b/sql/patterns/SQL50.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\sql\patterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8E4808-EAD1-4E11-8B84-BD2DDCB1CDC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82946A2-A9A1-4AC7-AA19-B7C7E419CF6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="90">
   <si>
     <t>Question</t>
   </si>
@@ -297,6 +297,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/the-number-of-employees-which-report-to-each-employee/solutions/3865526/100-easy-fast-clean-solution/?envType=study-plan-v2&amp;envId=top-sql-50 </t>
+  </si>
+  <si>
+    <t>1789. Primary Department for Each Employee</t>
+  </si>
+  <si>
+    <t>Use union function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/primary-department-for-each-employee/solutions/3871250/100-easy-fast-clean-solution/?envType=study-plan-v2&amp;envId=top-sql-50 </t>
   </si>
 </sst>
 </file>
@@ -400,8 +409,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E26" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E26" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E27" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E27" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -676,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29:E30"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1131,6 +1140,23 @@
       </c>
       <c r="E26" s="2" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1158,11 +1184,12 @@
     <hyperlink ref="E24" r:id="rId21" xr:uid="{C998ACAA-0ACE-4A2E-9EAC-F0074AAB5B80}"/>
     <hyperlink ref="E25" r:id="rId22" xr:uid="{7A9939AE-51F2-454F-9D8B-DD563F1D1B5A}"/>
     <hyperlink ref="E26" r:id="rId23" xr:uid="{5FCF4139-B076-40C1-9250-73EC5908ABB1}"/>
+    <hyperlink ref="E27" r:id="rId24" xr:uid="{6B769F7C-41B8-41E2-AC38-0FF79B38D542}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId24"/>
+  <pageSetup orientation="portrait" r:id="rId25"/>
   <tableParts count="1">
-    <tablePart r:id="rId25"/>
+    <tablePart r:id="rId26"/>
   </tableParts>
 </worksheet>
 </file>
--- a/sql/patterns/SQL50.xlsx
+++ b/sql/patterns/SQL50.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\sql\patterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82946A2-A9A1-4AC7-AA19-B7C7E419CF6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F210C1-62E6-4365-B29B-B1A3A79E540F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="93">
   <si>
     <t>Question</t>
   </si>
@@ -306,6 +306,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/primary-department-for-each-employee/solutions/3871250/100-easy-fast-clean-solution/?envType=study-plan-v2&amp;envId=top-sql-50 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/triangle-judgement/solutions/4002638/triangle-judgement-easy-solution-with-explanation-100-enjoyable/?envType=study-plan-v2&amp;envId=top-sql-50 </t>
+  </si>
+  <si>
+    <t>610. Triangle Judgement</t>
+  </si>
+  <si>
+    <t>Triangle inequality. Check for each side, not just z. Use Case for 'Yes' else 'No' as triangle from Triangle.</t>
   </si>
 </sst>
 </file>
@@ -409,8 +418,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E27" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E27" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E28" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E28" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -685,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1157,6 +1166,23 @@
       </c>
       <c r="E27" s="2" t="s">
         <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1185,11 +1211,12 @@
     <hyperlink ref="E25" r:id="rId22" xr:uid="{7A9939AE-51F2-454F-9D8B-DD563F1D1B5A}"/>
     <hyperlink ref="E26" r:id="rId23" xr:uid="{5FCF4139-B076-40C1-9250-73EC5908ABB1}"/>
     <hyperlink ref="E27" r:id="rId24" xr:uid="{6B769F7C-41B8-41E2-AC38-0FF79B38D542}"/>
+    <hyperlink ref="E28" r:id="rId25" xr:uid="{FD745B3A-0455-42E5-BABD-4B0C7D9BB10B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId25"/>
+  <pageSetup orientation="portrait" r:id="rId26"/>
   <tableParts count="1">
-    <tablePart r:id="rId26"/>
+    <tablePart r:id="rId27"/>
   </tableParts>
 </worksheet>
 </file>
--- a/sql/patterns/SQL50.xlsx
+++ b/sql/patterns/SQL50.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\sql\patterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F210C1-62E6-4365-B29B-B1A3A79E540F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EECB66-B5CD-4B27-9D96-08B4ED918D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="96">
   <si>
     <t>Question</t>
   </si>
@@ -315,6 +315,15 @@
   </si>
   <si>
     <t>Triangle inequality. Check for each side, not just z. Use Case for 'Yes' else 'No' as triangle from Triangle.</t>
+  </si>
+  <si>
+    <t>180. Consecutive Numbers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/consecutive-numbers/solutions/3322142/runtime-129-ms-beats-96-28-one-solution-for-mysql-ms-sql-and-oracle/?envType=study-plan-v2&amp;envId=top-sql-50 </t>
+  </si>
+  <si>
+    <t>The cleanest approach is to use select disting and lag and lead to get numbers before and after the current number. You can also use distinct and dense_rank, or select distinct of 3 self joins.</t>
   </si>
 </sst>
 </file>
@@ -418,8 +427,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E28" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E28" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E29" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E29" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -694,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1183,6 +1192,23 @@
       </c>
       <c r="E28" s="2" t="s">
         <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1212,11 +1238,12 @@
     <hyperlink ref="E26" r:id="rId23" xr:uid="{5FCF4139-B076-40C1-9250-73EC5908ABB1}"/>
     <hyperlink ref="E27" r:id="rId24" xr:uid="{6B769F7C-41B8-41E2-AC38-0FF79B38D542}"/>
     <hyperlink ref="E28" r:id="rId25" xr:uid="{FD745B3A-0455-42E5-BABD-4B0C7D9BB10B}"/>
+    <hyperlink ref="E29" r:id="rId26" xr:uid="{027D0C3C-833F-49A8-AA5A-AA609440D8BA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId26"/>
+  <pageSetup orientation="portrait" r:id="rId27"/>
   <tableParts count="1">
-    <tablePart r:id="rId27"/>
+    <tablePart r:id="rId28"/>
   </tableParts>
 </worksheet>
 </file>
--- a/sql/patterns/SQL50.xlsx
+++ b/sql/patterns/SQL50.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\sql\patterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EECB66-B5CD-4B27-9D96-08B4ED918D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD8DC55-6F8D-4F7F-BE51-ADC5AC05F9B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="99">
   <si>
     <t>Question</t>
   </si>
@@ -324,6 +324,15 @@
   </si>
   <si>
     <t>The cleanest approach is to use select disting and lag and lead to get numbers before and after the current number. You can also use distinct and dense_rank, or select distinct of 3 self joins.</t>
+  </si>
+  <si>
+    <t>1164. Product Price at a Given Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/product-price-at-a-given-date/solutions/3825771/simply-using-first-value/?envType=study-plan-v2&amp;envId=top-sql-50 </t>
+  </si>
+  <si>
+    <t>Use first_value(new_price) over window function (partition by product_id order by change_date desc) where change_date &lt;= desired date, union select distinct product_id, where product_id not in (select product_id from Products where change_date &lt;= desired date). You can also use Joins.</t>
   </si>
 </sst>
 </file>
@@ -427,8 +436,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E29" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E29" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E30" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E30" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -703,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1209,6 +1218,23 @@
       </c>
       <c r="E29" s="2" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1239,11 +1265,12 @@
     <hyperlink ref="E27" r:id="rId24" xr:uid="{6B769F7C-41B8-41E2-AC38-0FF79B38D542}"/>
     <hyperlink ref="E28" r:id="rId25" xr:uid="{FD745B3A-0455-42E5-BABD-4B0C7D9BB10B}"/>
     <hyperlink ref="E29" r:id="rId26" xr:uid="{027D0C3C-833F-49A8-AA5A-AA609440D8BA}"/>
+    <hyperlink ref="E30" r:id="rId27" xr:uid="{F0D015FD-F56F-4D3D-9280-C4CA648F8BAD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId27"/>
+  <pageSetup orientation="portrait" r:id="rId28"/>
   <tableParts count="1">
-    <tablePart r:id="rId28"/>
+    <tablePart r:id="rId29"/>
   </tableParts>
 </worksheet>
 </file>
--- a/sql/patterns/SQL50.xlsx
+++ b/sql/patterns/SQL50.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\sql\patterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD8DC55-6F8D-4F7F-BE51-ADC5AC05F9B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60856A0F-6C2F-48FF-9CFE-92B8CA62A859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="102">
   <si>
     <t>Question</t>
   </si>
@@ -333,6 +333,15 @@
   </si>
   <si>
     <t>Use first_value(new_price) over window function (partition by product_id order by change_date desc) where change_date &lt;= desired date, union select distinct product_id, where product_id not in (select product_id from Products where change_date &lt;= desired date). You can also use Joins.</t>
+  </si>
+  <si>
+    <t>1204. Last Person to Fit in the Bus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/last-person-to-fit-in-the-bus/solutions/3882117/easy-oracle-solution/?envType=study-plan-v2&amp;envId=top-sql-50 </t>
+  </si>
+  <si>
+    <t>Use (select person name, sum weight OVER (order by turn) as sum_weight from queue order by sum_weight desc) in the inner select, or use a CTE.</t>
   </si>
 </sst>
 </file>
@@ -436,8 +445,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E30" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E30" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E31" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E31" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -712,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1235,6 +1244,23 @@
       </c>
       <c r="E30" s="2" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" t="s">
+        <v>101</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1266,11 +1292,12 @@
     <hyperlink ref="E28" r:id="rId25" xr:uid="{FD745B3A-0455-42E5-BABD-4B0C7D9BB10B}"/>
     <hyperlink ref="E29" r:id="rId26" xr:uid="{027D0C3C-833F-49A8-AA5A-AA609440D8BA}"/>
     <hyperlink ref="E30" r:id="rId27" xr:uid="{F0D015FD-F56F-4D3D-9280-C4CA648F8BAD}"/>
+    <hyperlink ref="E31" r:id="rId28" xr:uid="{B5138168-D18D-4AA8-A26B-5854E4B3BD88}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId28"/>
+  <pageSetup orientation="portrait" r:id="rId29"/>
   <tableParts count="1">
-    <tablePart r:id="rId29"/>
+    <tablePart r:id="rId30"/>
   </tableParts>
 </worksheet>
 </file>
--- a/sql/patterns/SQL50.xlsx
+++ b/sql/patterns/SQL50.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\sql\patterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60856A0F-6C2F-48FF-9CFE-92B8CA62A859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52B538E-44CF-4D9F-A5B6-1531ED67E25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="106">
   <si>
     <t>Question</t>
   </si>
@@ -342,6 +342,18 @@
   </si>
   <si>
     <t>Use (select person name, sum weight OVER (order by turn) as sum_weight from queue order by sum_weight desc) in the inner select, or use a CTE.</t>
+  </si>
+  <si>
+    <t>1978. Employees Whose Manager Left the Company</t>
+  </si>
+  <si>
+    <t>Subqueries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/employees-whose-manager-left-the-company/solutions/3789532/easy-solution/?envType=study-plan-v2&amp;envId=top-sql-50 </t>
+  </si>
+  <si>
+    <t>Use a subquery for where, anager id not in (select employee_id from Employees). You can also use EXISTS()</t>
   </si>
 </sst>
 </file>
@@ -445,8 +457,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E31" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E31" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E32" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E32" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -721,10 +733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1261,6 +1273,23 @@
       </c>
       <c r="E31" s="2" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" t="s">
+        <v>105</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1293,11 +1322,12 @@
     <hyperlink ref="E29" r:id="rId26" xr:uid="{027D0C3C-833F-49A8-AA5A-AA609440D8BA}"/>
     <hyperlink ref="E30" r:id="rId27" xr:uid="{F0D015FD-F56F-4D3D-9280-C4CA648F8BAD}"/>
     <hyperlink ref="E31" r:id="rId28" xr:uid="{B5138168-D18D-4AA8-A26B-5854E4B3BD88}"/>
+    <hyperlink ref="E32" r:id="rId29" xr:uid="{3B35A0E6-D4F3-4748-B41B-ED6B1C02249B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId29"/>
+  <pageSetup orientation="portrait" r:id="rId30"/>
   <tableParts count="1">
-    <tablePart r:id="rId30"/>
+    <tablePart r:id="rId31"/>
   </tableParts>
 </worksheet>
 </file>
--- a/sql/patterns/SQL50.xlsx
+++ b/sql/patterns/SQL50.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\sql\patterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52B538E-44CF-4D9F-A5B6-1531ED67E25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83C8959-36D6-474C-80A9-226793A90656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="112">
   <si>
     <t>Question</t>
   </si>
@@ -354,6 +354,24 @@
   </si>
   <si>
     <t>Use a subquery for where, anager id not in (select employee_id from Employees). You can also use EXISTS()</t>
+  </si>
+  <si>
+    <t>626. Exchange Seats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/exchange-seats/solutions/644364/simple-solution-without-union-and-subquery/?envType=study-plan-v2&amp;envId=top-sql-50 </t>
+  </si>
+  <si>
+    <t>Use mod to get even or ordd, and lead and lag to find the ids. nvl( case when mod (id, 2) = 1 then lead (student, 1) over (order by id) else lag(student, 1) over (order by id) end, student) in the subquery.</t>
+  </si>
+  <si>
+    <t>1341. Movie Rating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/movie-rating/solutions/4615910/movie-rating-oracle-sql-using-cte-joins-and-union-all/?envType=study-plan-v2&amp;envId=top-sql-50 </t>
+  </si>
+  <si>
+    <t>Use CTE with select and left joins on all the tables, then select the results from the cte, group by name, order by count where rownum = 1. To get the other data, union all from the cte again.</t>
   </si>
 </sst>
 </file>
@@ -457,8 +475,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E32" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E32" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E34" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E34" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -733,10 +751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1290,6 +1308,40 @@
       </c>
       <c r="E32" s="2" t="s">
         <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" t="s">
+        <v>108</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" t="s">
+        <v>111</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1323,11 +1375,13 @@
     <hyperlink ref="E30" r:id="rId27" xr:uid="{F0D015FD-F56F-4D3D-9280-C4CA648F8BAD}"/>
     <hyperlink ref="E31" r:id="rId28" xr:uid="{B5138168-D18D-4AA8-A26B-5854E4B3BD88}"/>
     <hyperlink ref="E32" r:id="rId29" xr:uid="{3B35A0E6-D4F3-4748-B41B-ED6B1C02249B}"/>
+    <hyperlink ref="E33" r:id="rId30" xr:uid="{0AA341FB-5478-4951-AAE7-A77B515475F4}"/>
+    <hyperlink ref="E34" r:id="rId31" xr:uid="{BC21A13C-54AD-488C-8418-313EFC8045FC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId30"/>
+  <pageSetup orientation="portrait" r:id="rId32"/>
   <tableParts count="1">
-    <tablePart r:id="rId31"/>
+    <tablePart r:id="rId33"/>
   </tableParts>
 </worksheet>
 </file>
--- a/sql/patterns/SQL50.xlsx
+++ b/sql/patterns/SQL50.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\sql\patterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83C8959-36D6-474C-80A9-226793A90656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02F5667-1861-45D7-8E09-DD3421625002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="115">
   <si>
     <t>Question</t>
   </si>
@@ -372,6 +372,15 @@
   </si>
   <si>
     <t>Use CTE with select and left joins on all the tables, then select the results from the cte, group by name, order by count where rownum = 1. To get the other data, union all from the cte again.</t>
+  </si>
+  <si>
+    <t>1321. Restaurant Growth</t>
+  </si>
+  <si>
+    <t>Use window function for rows 6 preceding.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/restaurant-growth/solutions/1494257/oracle-window-functions-rows-6-preceding/?envType=study-plan-v2&amp;envId=top-sql-50 </t>
   </si>
 </sst>
 </file>
@@ -475,8 +484,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E34" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E34" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E35" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E35" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -751,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1342,6 +1351,23 @@
       </c>
       <c r="E34" s="2" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1377,11 +1403,12 @@
     <hyperlink ref="E32" r:id="rId29" xr:uid="{3B35A0E6-D4F3-4748-B41B-ED6B1C02249B}"/>
     <hyperlink ref="E33" r:id="rId30" xr:uid="{0AA341FB-5478-4951-AAE7-A77B515475F4}"/>
     <hyperlink ref="E34" r:id="rId31" xr:uid="{BC21A13C-54AD-488C-8418-313EFC8045FC}"/>
+    <hyperlink ref="E35" r:id="rId32" xr:uid="{FD88A925-090C-45F3-B2FC-A0D581E75704}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId32"/>
+  <pageSetup orientation="portrait" r:id="rId33"/>
   <tableParts count="1">
-    <tablePart r:id="rId33"/>
+    <tablePart r:id="rId34"/>
   </tableParts>
 </worksheet>
 </file>
--- a/sql/patterns/SQL50.xlsx
+++ b/sql/patterns/SQL50.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\sql\patterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02F5667-1861-45D7-8E09-DD3421625002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA538D34-1E26-41BC-B007-CDA635FCF61E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="121">
   <si>
     <t>Question</t>
   </si>
@@ -381,6 +381,24 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/restaurant-growth/solutions/1494257/oracle-window-functions-rows-6-preceding/?envType=study-plan-v2&amp;envId=top-sql-50 </t>
+  </si>
+  <si>
+    <t>602. Friend Requests II: Who Has the Most Friends</t>
+  </si>
+  <si>
+    <t>Use CTE as select id and count(*) as num from (select requester id UNION ALL accepter_id) group by id, then select id, num from cte where num = (select max(num) from cte)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/friend-requests-ii-who-has-the-most-friends/solutions/3550546/simple-solution/?envType=study-plan-v2&amp;envId=top-sql-50 </t>
+  </si>
+  <si>
+    <t>585. Investments in 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/investments-in-2016/solutions/4156632/880ms-runtime-beat-97-users-0mb-memory/?envType=study-plan-v2&amp;envId=top-sql-50 </t>
+  </si>
+  <si>
+    <t>We can either use subqueries, or CTE with window functions.</t>
   </si>
 </sst>
 </file>
@@ -484,8 +502,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E35" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E35" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E37" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E37" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -760,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1368,6 +1386,40 @@
       </c>
       <c r="E35" s="2" t="s">
         <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>115</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" t="s">
+        <v>116</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>118</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" t="s">
+        <v>120</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1404,11 +1456,13 @@
     <hyperlink ref="E33" r:id="rId30" xr:uid="{0AA341FB-5478-4951-AAE7-A77B515475F4}"/>
     <hyperlink ref="E34" r:id="rId31" xr:uid="{BC21A13C-54AD-488C-8418-313EFC8045FC}"/>
     <hyperlink ref="E35" r:id="rId32" xr:uid="{FD88A925-090C-45F3-B2FC-A0D581E75704}"/>
+    <hyperlink ref="E36" r:id="rId33" xr:uid="{2318A1F1-3553-4C20-ACA6-6592DBEBF22C}"/>
+    <hyperlink ref="E37" r:id="rId34" xr:uid="{27ABCC32-5A3A-4CBF-9733-8BD6D91017D2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId33"/>
+  <pageSetup orientation="portrait" r:id="rId35"/>
   <tableParts count="1">
-    <tablePart r:id="rId34"/>
+    <tablePart r:id="rId36"/>
   </tableParts>
 </worksheet>
 </file>
--- a/sql/patterns/SQL50.xlsx
+++ b/sql/patterns/SQL50.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\sql\patterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA538D34-1E26-41BC-B007-CDA635FCF61E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6587C8D8-A2AE-4466-8189-104A203ACEC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="129">
   <si>
     <t>Question</t>
   </si>
@@ -399,6 +399,30 @@
   </si>
   <si>
     <t>We can either use subqueries, or CTE with window functions.</t>
+  </si>
+  <si>
+    <t>1327. List the Products Ordered in a Period</t>
+  </si>
+  <si>
+    <t>Advanced String Functions / Regex / Clause</t>
+  </si>
+  <si>
+    <t>Use select from products join orders on product_id where to_char(order_date, 'MON-YYYY') = 'FEB-2020' group by product_name having sum(unit) &gt;= 100.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/list-the-products-ordered-in-a-period/solutions/4019472/simple-easy-solution-using-group-by-and-having-clause/?envType=study-plan-v2&amp;envId=top-sql-50 </t>
+  </si>
+  <si>
+    <t>185. Department Top Three Salaries</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/department-top-three-salaries/solutions/3074004/using-basic-utilities-of-sql/?envType=study-plan-v2&amp;envId=top-sql-50 </t>
+  </si>
+  <si>
+    <t>Use select from Employees join Department on id where 3 &gt; (select count(distinct e2.salary) from Employee e2 where e2.Salary &gt; e1.Salary and d1.deptid = d2.deptid.</t>
   </si>
 </sst>
 </file>
@@ -430,7 +454,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -449,6 +473,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -463,12 +493,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -502,8 +533,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E37" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:E37" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}" name="Table2" displayName="Table2" ref="A1:E39" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E39" xr:uid="{8A5E5259-EAE7-4B70-A567-E3F2ADB589C1}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39CFF8EE-B425-4749-92A0-090E902A657C}" name="Question"/>
     <tableColumn id="2" xr3:uid="{818806AE-0CAD-47D4-9900-447AC000C09C}" name="Difficulty" dataDxfId="0"/>
@@ -778,10 +809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1420,6 +1451,40 @@
       </c>
       <c r="E37" s="2" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>121</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>122</v>
+      </c>
+      <c r="D38" t="s">
+        <v>123</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>125</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C39" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" t="s">
+        <v>128</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1458,11 +1523,13 @@
     <hyperlink ref="E35" r:id="rId32" xr:uid="{FD88A925-090C-45F3-B2FC-A0D581E75704}"/>
     <hyperlink ref="E36" r:id="rId33" xr:uid="{2318A1F1-3553-4C20-ACA6-6592DBEBF22C}"/>
     <hyperlink ref="E37" r:id="rId34" xr:uid="{27ABCC32-5A3A-4CBF-9733-8BD6D91017D2}"/>
+    <hyperlink ref="E38" r:id="rId35" xr:uid="{4FD9B15E-6084-4CF7-868B-F079DFA4AA00}"/>
+    <hyperlink ref="E39" r:id="rId36" xr:uid="{2456CC6E-A91D-46C6-A512-E02C029D82B0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId35"/>
+  <pageSetup orientation="portrait" r:id="rId37"/>
   <tableParts count="1">
-    <tablePart r:id="rId36"/>
+    <tablePart r:id="rId38"/>
   </tableParts>
 </worksheet>
 </file>